--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE488EB6-F312-C44F-910C-313A4619E852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C86E7-20C4-B345-AB9B-285C0F5B6871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="4140" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -105,7 +105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,10 +115,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -464,6 +467,14 @@
         <v>628</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>43904</v>
+      </c>
+      <c r="B3" s="4">
+        <v>628</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C86E7-20C4-B345-AB9B-285C0F5B6871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD44E74-0DA6-D84F-A716-CDED688F73EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="4140" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -105,7 +105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,9 +119,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +438,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -468,7 +465,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43904</v>
       </c>
       <c r="B3" s="4">

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD44E74-0DA6-D84F-A716-CDED688F73EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D9670-AD8D-BB4C-868C-23804F6225C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="4140" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="10220" yWindow="-17180" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>PCR検査実施人数</t>
     <phoneticPr fontId="1"/>
@@ -42,6 +42,106 @@
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCR検査陰性者数</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>インセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCR検査陽性者数</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>症状が無い方</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナイカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院治療を必要とする方</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウインチル</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院された方</t>
+    <rPh sb="0" eb="2">
+      <t>タイイn</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院されている方</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイn</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亡くなられた方</t>
+    <rPh sb="0" eb="1">
+      <t>ナクナラレ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>症状がある方</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院治療を必要とする方</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウイn</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院されている方</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウイn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -435,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -448,15 +548,51 @@
     <col min="3" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>43903</v>
       </c>
@@ -464,12 +600,72 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>43904</v>
       </c>
       <c r="B3" s="4">
         <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="3">
+        <v>43905</v>
+      </c>
+      <c r="B4" s="4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="3">
+        <v>43906</v>
+      </c>
+      <c r="B5" s="4">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B6" s="4">
+        <v>744</v>
+      </c>
+      <c r="C6" s="1">
+        <v>727</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D9670-AD8D-BB4C-868C-23804F6225C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C386B-CA51-114F-8D58-0B2B08527773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="-17180" windowWidth="27900" windowHeight="16940" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -668,6 +668,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B7" s="4">
+        <v>825</v>
+      </c>
+      <c r="C7" s="1">
+        <v>804</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1">
+        <v>16</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C386B-CA51-114F-8D58-0B2B08527773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFABFC2-5D0B-A748-89DF-30E4947EFFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="16980" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -712,6 +712,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="3">
+        <v>43913</v>
+      </c>
+      <c r="B8" s="4">
+        <v>937</v>
+      </c>
+      <c r="C8" s="1">
+        <v>912</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>13</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFABFC2-5D0B-A748-89DF-30E4947EFFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1578E6C-06D5-824D-B74C-D38AE9589B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -756,6 +756,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="3">
+        <v>43914</v>
+      </c>
+      <c r="B9" s="4">
+        <v>974</v>
+      </c>
+      <c r="C9" s="1">
+        <v>947</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>22</v>
+      </c>
+      <c r="K9" s="1">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1">
+        <v>13</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1578E6C-06D5-824D-B74C-D38AE9589B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD887FFF-3F25-A540-B622-B074D67DD183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -800,6 +800,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="3">
+        <v>43915</v>
+      </c>
+      <c r="B10" s="4">
+        <v>997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>966</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>26</v>
+      </c>
+      <c r="K10" s="1">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1">
+        <v>17</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD887FFF-3F25-A540-B622-B074D67DD183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A8289-227F-BD4A-912A-8105AFDEA256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -844,6 +844,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="3">
+        <v>43916</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1036</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>29</v>
+      </c>
+      <c r="K11" s="1">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>19</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A8289-227F-BD4A-912A-8105AFDEA256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470CC21-2EB1-0046-AAB9-35B9A44080E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6470CC21-2EB1-0046-AAB9-35B9A44080E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DEE4C-2F68-DD4E-9FD7-CBE0F751C1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -888,6 +888,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="3">
+        <v>43919</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1055</v>
+      </c>
+      <c r="D12" s="1">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032DEE4C-2F68-DD4E-9FD7-CBE0F751C1C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC280E4-58BE-5648-9E5B-20883BD2F331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -890,16 +890,46 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="3">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="B12" s="4">
-        <v>1102</v>
+        <v>1211</v>
       </c>
       <c r="C12" s="1">
-        <v>1055</v>
+        <v>1142</v>
       </c>
       <c r="D12" s="1">
-        <v>47</v>
+        <v>69</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1">
+        <v>60</v>
+      </c>
+      <c r="L12" s="1">
+        <v>12</v>
+      </c>
+      <c r="M12" s="1">
+        <v>48</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC280E4-58BE-5648-9E5B-20883BD2F331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17230E8A-6A0F-9F4B-A5D3-0117E846A616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="16360" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +219,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -932,6 +935,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="5">
+        <v>43922</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1382</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1294</v>
+      </c>
+      <c r="D13" s="1">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>77</v>
+      </c>
+      <c r="K13" s="1">
+        <v>60</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1">
+        <v>48</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17230E8A-6A0F-9F4B-A5D3-0117E846A616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F5AD24-12F4-C046-A99B-2EC448957668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,9 +219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -936,7 +933,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43922</v>
       </c>
       <c r="B13" s="4">
@@ -976,6 +973,50 @@
         <v>48</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3">
+        <v>43927</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1714</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1581</v>
+      </c>
+      <c r="D14" s="1">
+        <v>133</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>120</v>
+      </c>
+      <c r="K14" s="1">
+        <v>120</v>
+      </c>
+      <c r="L14" s="1">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F5AD24-12F4-C046-A99B-2EC448957668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC1CEE-D2B8-824B-BACE-9ACFA3530847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="16720" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1020,6 +1020,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="3">
+        <v>43928</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1788</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1643</v>
+      </c>
+      <c r="D15" s="1">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>132</v>
+      </c>
+      <c r="K15" s="1">
+        <v>132</v>
+      </c>
+      <c r="L15" s="1">
+        <v>21</v>
+      </c>
+      <c r="M15" s="1">
+        <v>111</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC1CEE-D2B8-824B-BACE-9ACFA3530847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB41CC2-B607-4C40-8C4F-31757ABC764C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16720" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="16400" yWindow="12620" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1064,6 +1064,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="3">
+        <v>43930</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2008</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1843</v>
+      </c>
+      <c r="D16" s="1">
+        <v>165</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>152</v>
+      </c>
+      <c r="K16" s="1">
+        <v>152</v>
+      </c>
+      <c r="L16" s="1">
+        <v>26</v>
+      </c>
+      <c r="M16" s="1">
+        <v>125</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB41CC2-B607-4C40-8C4F-31757ABC764C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70523426-354E-CC4C-8274-E30ED678DE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16400" yWindow="12620" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1108,6 +1108,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3">
+        <v>43933</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2267</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2074</v>
+      </c>
+      <c r="D17" s="1">
+        <v>193</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>180</v>
+      </c>
+      <c r="K17" s="1">
+        <v>180</v>
+      </c>
+      <c r="L17" s="1">
+        <v>38</v>
+      </c>
+      <c r="M17" s="1">
+        <v>139</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70523426-354E-CC4C-8274-E30ED678DE6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8781296-7D33-4B49-858D-8F9394AC23CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1152,6 +1152,50 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="3">
+        <v>43934</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2480</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2275</v>
+      </c>
+      <c r="D18" s="1">
+        <v>205</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>192</v>
+      </c>
+      <c r="K18" s="1">
+        <v>192</v>
+      </c>
+      <c r="L18" s="1">
+        <v>40</v>
+      </c>
+      <c r="M18" s="1">
+        <v>149</v>
+      </c>
+      <c r="N18" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8781296-7D33-4B49-858D-8F9394AC23CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778AA6E-D6F5-7941-BA34-E321D6EBEA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>PCR検査実施人数</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +142,34 @@
     <t>入院されている方</t>
     <rPh sb="0" eb="2">
       <t>ニュウイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <rPh sb="0" eb="2">
+      <t>タイイn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入院中</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウインテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊施設</t>
+    <rPh sb="0" eb="4">
+      <t>シュクハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自宅療養</t>
+    <rPh sb="0" eb="4">
+      <t>ジタクルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -535,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -548,7 +576,7 @@
     <col min="3" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -591,8 +619,23 @@
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>43903</v>
       </c>
@@ -600,7 +643,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>43904</v>
       </c>
@@ -608,7 +651,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>43905</v>
       </c>
@@ -616,7 +659,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:19">
       <c r="A5" s="3">
         <v>43906</v>
       </c>
@@ -624,7 +667,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:19">
       <c r="A6" s="3">
         <v>43907</v>
       </c>
@@ -668,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:19">
       <c r="A7" s="3">
         <v>43908</v>
       </c>
@@ -712,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:19">
       <c r="A8" s="3">
         <v>43913</v>
       </c>
@@ -756,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:19">
       <c r="A9" s="3">
         <v>43914</v>
       </c>
@@ -800,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:19">
       <c r="A10" s="3">
         <v>43915</v>
       </c>
@@ -844,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:19">
       <c r="A11" s="3">
         <v>43916</v>
       </c>
@@ -888,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:19">
       <c r="A12" s="3">
         <v>43921</v>
       </c>
@@ -932,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:19">
       <c r="A13" s="3">
         <v>43922</v>
       </c>
@@ -976,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:19">
       <c r="A14" s="3">
         <v>43927</v>
       </c>
@@ -1020,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:19">
       <c r="A15" s="3">
         <v>43928</v>
       </c>
@@ -1064,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:19">
       <c r="A16" s="3">
         <v>43930</v>
       </c>
@@ -1108,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:19">
       <c r="A17" s="3">
         <v>43933</v>
       </c>
@@ -1152,7 +1195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:19">
       <c r="A18" s="3">
         <v>43934</v>
       </c>
@@ -1193,6 +1236,35 @@
         <v>149</v>
       </c>
       <c r="N18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3">
+        <v>43935</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2637</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2427</v>
+      </c>
+      <c r="D19" s="1">
+        <v>210</v>
+      </c>
+      <c r="O19" s="1">
+        <v>54</v>
+      </c>
+      <c r="P19" s="1">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/covid-19-kyoto_pcr.xlsx
+++ b/data/covid-19-kyoto_pcr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuhitoinoue/Documents/GitHub/covid19-kyoto/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778AA6E-D6F5-7941-BA34-E321D6EBEA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B694ECC1-E3F8-364C-B207-8B57598644C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="40960" windowHeight="21140" xr2:uid="{E47F14C3-CEDE-6141-9DA4-5F97A96ABD40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E881602A-4AF7-9747-BE83-590458E0DA6E}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1268,6 +1268,35 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2739</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2524</v>
+      </c>
+      <c r="D20" s="1">
+        <v>215</v>
+      </c>
+      <c r="O20" s="1">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1">
+        <v>149</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
